--- a/biology/Médecine/Appareil_manducateur/Appareil_manducateur.xlsx
+++ b/biology/Médecine/Appareil_manducateur/Appareil_manducateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appareil manducateur est l'appareil[1] servant à la manducation[2], c'est-à-dire aux opérations antérieures à la digestion (préhension, mastication, insalivation, ventilation et déglutition).
-L'appareil manducateur est constitué des maxillaires et de la mandibule, supportant les  arcades dentaires (en) et reliés par les articulations temporomandibulaires. Il comprend également la langue et les muscles masticateurs[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appareil manducateur est l'appareil servant à la manducation, c'est-à-dire aux opérations antérieures à la digestion (préhension, mastication, insalivation, ventilation et déglutition).
+L'appareil manducateur est constitué des maxillaires et de la mandibule, supportant les  arcades dentaires (en) et reliés par les articulations temporomandibulaires. Il comprend également la langue et les muscles masticateurs.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Fonctions remplies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'appareil manducateur assure les fonctions suivantes :
 préhension de l'aliment pour le porter dans la cavité buccale ;
@@ -547,7 +561,9 @@
           <t>Muscles de la manducation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les muscles permettant les mouvements de fermeture de la bouche sont :
 le muscle masséter (élévation de la mandibule) ;
